--- a/medicine/Psychotrope/London_Pride/London_Pride.xlsx
+++ b/medicine/Psychotrope/London_Pride/London_Pride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">London Pride est une marque de bière ale très servie dans les pub londoniens. Cette bière est brassée par Fuller's Brewery (en), qui se trouve à Chiswick, à l'ouest de Londres [1]. Elle est aussi vendue dans les supermarchés britanniques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">London Pride est une marque de bière ale très servie dans les pub londoniens. Cette bière est brassée par Fuller's Brewery (en), qui se trouve à Chiswick, à l'ouest de Londres . Elle est aussi vendue dans les supermarchés britanniques.
 La bière a été brassée pour la première fois dans les années 1950, et en 1979 elle a gagné le titre de « Champion Bière de Grande-Bretagne ».
 Son degré alcoolique est de 4,1 pour cent, mais les versions vendues aux supermarchés et à l'étranger titrent 4,7 pour cent.
 </t>
@@ -513,7 +525,9 @@
           <t>Autres usages du nom en anglais</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom anglais de la plante du genre Saxifraga « Désespoir du peintre » est aussi London Pride. London Pride est également le titre d'une chanson anglaise interprétée par Noël Coward, louant Londres et cette plante.
 </t>
